--- a/downloaded_files/EECS201_Tutorial-35296.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35296.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed amr ebrahim elmasry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم رأفت محمد عبدالوهاب فرحات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Raafat Mohammed Farahat</x:t>
   </x:si>
   <x:si>
     <x:t>1220202</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45921.4019155903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6652299769</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.975794294</x:v>
+        <x:v>45906.6652299769</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45915.975794294</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4162960648</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6660025116</x:v>
+        <x:v>45909.4162960648</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6650138542</x:v>
+        <x:v>45906.6660025116</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.6650138542</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Tutorial-35296.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35296.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Saja Ahmed Nabeel Mohammed Elsaeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
   </x:si>
   <x:si>
     <x:t>1210243</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -963,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9712658218</x:v>
+        <x:v>45927.056968831</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45915.9712658218</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4149113426</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45909.4149113426</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45914.1112114583</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.6349271991</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45909.6349271991</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4471974537</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45909.4471974537</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.8206471412</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.4019155903</x:v>
+        <x:v>45909.8206471412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45921.4019155903</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6652299769</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.975794294</x:v>
+        <x:v>45906.6652299769</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45915.975794294</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4162960648</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6660025116</x:v>
+        <x:v>45909.4162960648</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6650138542</x:v>
+        <x:v>45906.6660025116</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.6650138542</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Tutorial-35296.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35296.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Tarek Osama Ahmed Mostafa Ahmed Elashmawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1210014</x:t>
@@ -389,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1100,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45909.6349271991</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.6349271991</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45909.4471974537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4471974537</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45909.8206471412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.8206471412</x:v>
+        <x:v>45921.4019155903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.4019155903</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45906.6652299769</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6652299769</x:v>
+        <x:v>45915.975794294</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.975794294</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45909.4162960648</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4162960648</x:v>
+        <x:v>45906.6660025116</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6660025116</x:v>
+        <x:v>45906.6650138542</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1597,38 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.6650138542</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Tutorial-35296.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35296.xlsx
@@ -87,15 +87,6 @@
     <x:t>Saja Ahmed Nabeel Mohammed Elsaeed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210243</x:t>
   </x:si>
   <x:si>
@@ -184,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Amr Magdy Mohamed Abo Elsoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فراس اشرف محمد عبدالرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fras Ashraf Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220275</x:t>
@@ -963,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.056968831</x:v>
+        <x:v>45915.9712658218</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9712658218</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45909.4149113426</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4149113426</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45909.6349271991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.6349271991</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45909.4471974537</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4471974537</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45927.8509209144</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/EECS201_Tutorial-35296.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35296.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Saja Ahmed Nabeel Mohammed Elsaeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
   </x:si>
   <x:si>
     <x:t>1210243</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -963,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9712658218</x:v>
+        <x:v>45928.4153157407</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45915.9712658218</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4149113426</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45909.4149113426</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.6349271991</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45909.6349271991</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4471974537</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45909.4471974537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.8509209144</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.8206471412</x:v>
+        <x:v>45927.8509209144</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.4019155903</x:v>
+        <x:v>45909.8206471412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45921.4019155903</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6652299769</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.975794294</x:v>
+        <x:v>45906.6652299769</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45915.975794294</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4162960648</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6660025116</x:v>
+        <x:v>45909.4162960648</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6650138542</x:v>
+        <x:v>45906.6660025116</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.6650138542</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Tutorial-35296.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35296.xlsx
@@ -42,6 +42,15 @@
     <x:t>Amira Ibrahim Ahmed Ibrahim Mohamed El-Garf</x:t>
   </x:si>
   <x:si>
+    <x:t>1210200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اميره محمد عصام احمد عبدالغني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amira Mohamed Essam Ahmed Abdelghany</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210207</x:t>
   </x:si>
   <x:si>
@@ -202,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed amr ebrahim elmasry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم رأفت محمد عبدالوهاب فرحات</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Raafat Mohammed Farahat</x:t>
   </x:si>
   <x:si>
     <x:t>1220202</x:t>
@@ -812,7 +812,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45932.4545988773</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -844,7 +844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.5376210995</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -876,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6642064468</x:v>
+        <x:v>45907.5376210995</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -908,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4143678588</x:v>
+        <x:v>45906.6642064468</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -940,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45906.4143678588</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.4153157407</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9712658218</x:v>
+        <x:v>45928.4153157407</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45915.9712658218</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4149113426</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45909.4149113426</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.6349271991</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45909.6349271991</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4471974537</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45909.4471974537</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.8509209144</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.8206471412</x:v>
+        <x:v>45927.8509209144</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.4019155903</x:v>
+        <x:v>45909.8206471412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>

--- a/downloaded_files/EECS201_Tutorial-35296.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35296.xlsx
@@ -210,7 +210,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220202</x:t>

--- a/downloaded_files/EECS201_Tutorial-35296.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35296.xlsx
@@ -183,7 +183,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4220131</x:t>
